--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H2">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>13.54718364936311</v>
+        <v>10.35722822595822</v>
       </c>
       <c r="R2">
-        <v>121.924652844268</v>
+        <v>93.215054033624</v>
       </c>
       <c r="S2">
-        <v>0.3586751271281384</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="T2">
-        <v>0.3586751271281384</v>
+        <v>0.6311762527593258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H3">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>2.019236111879111</v>
+        <v>1.465096281784889</v>
       </c>
       <c r="R3">
-        <v>18.173125006912</v>
+        <v>13.185866536064</v>
       </c>
       <c r="S3">
-        <v>0.05346127932384064</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="T3">
-        <v>0.05346127932384063</v>
+        <v>0.08928392431779726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H4">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,211 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>6.322044079794667</v>
+        <v>4.587082818149333</v>
       </c>
       <c r="R4">
-        <v>56.898396718152</v>
+        <v>41.283745363344</v>
       </c>
       <c r="S4">
-        <v>0.1673823890426591</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="T4">
-        <v>0.1673823890426591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.641656</v>
-      </c>
-      <c r="I5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>45.95651366666667</v>
-      </c>
-      <c r="N5">
-        <v>137.869541</v>
-      </c>
-      <c r="O5">
-        <v>0.6189188856627117</v>
-      </c>
-      <c r="P5">
-        <v>0.6189188856627117</v>
-      </c>
-      <c r="Q5">
-        <v>9.829424244432889</v>
-      </c>
-      <c r="R5">
-        <v>88.464818199896</v>
-      </c>
-      <c r="S5">
-        <v>0.2602437585345733</v>
-      </c>
-      <c r="T5">
-        <v>0.2602437585345733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.641656</v>
-      </c>
-      <c r="I6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6.849914666666666</v>
-      </c>
-      <c r="N6">
-        <v>20.549744</v>
-      </c>
-      <c r="O6">
-        <v>0.0922511568899326</v>
-      </c>
-      <c r="P6">
-        <v>0.09225115688993259</v>
-      </c>
-      <c r="Q6">
-        <v>1.465096281784889</v>
-      </c>
-      <c r="R6">
-        <v>13.185866536064</v>
-      </c>
-      <c r="S6">
-        <v>0.03878987756609196</v>
-      </c>
-      <c r="T6">
-        <v>0.03878987756609196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.641656</v>
-      </c>
-      <c r="I7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.446458</v>
-      </c>
-      <c r="N7">
-        <v>64.33937400000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2888299574473556</v>
-      </c>
-      <c r="P7">
-        <v>0.2888299574473556</v>
-      </c>
-      <c r="Q7">
-        <v>4.587082818149335</v>
-      </c>
-      <c r="R7">
-        <v>41.283745363344</v>
-      </c>
-      <c r="S7">
-        <v>0.1214475684046965</v>
-      </c>
-      <c r="T7">
-        <v>0.1214475684046965</v>
+        <v>0.2795398229228769</v>
       </c>
     </row>
   </sheetData>
